--- a/70-Boost Action 增强行动.xlsx
+++ b/70-Boost Action 增强行动.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Note标签" sheetId="1" r:id="rId1"/>
     <sheet name="文本代码" sheetId="2" r:id="rId2"/>
     <sheet name="插件参数" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1427,7 +1440,7 @@
     <t>Boost</t>
   </si>
   <si>
-    <t>增幅</t>
+    <t>增幅\I[342]</t>
   </si>
   <si>
     <t xml:space="preserve">  Show?:</t>
@@ -1445,7 +1458,7 @@
     <t>Unboost</t>
   </si>
   <si>
-    <t>取消增幅</t>
+    <t>取消增幅\I[336]</t>
   </si>
   <si>
     <t>Shortcut Controls</t>
@@ -1543,7 +1556,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2711,7 +2724,7 @@
   <sheetPr/>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -3157,13 +3170,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="49.5" customWidth="1"/>
@@ -3404,7 +3417,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3414,7 +3427,7 @@
       <c r="C29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3429,7 +3442,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>146</v>
       </c>
@@ -3439,7 +3452,7 @@
       <c r="C31" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>149</v>
       </c>
     </row>

--- a/70-Boost Action 增强行动.xlsx
+++ b/70-Boost Action 增强行动.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Note标签" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="180">
   <si>
     <t>兼容性冲突：</t>
   </si>
@@ -1082,13 +1082,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">除非 </t>
     </r>
     <r>
@@ -1112,19 +1105,22 @@
       </rPr>
       <t>Boost，否则括号内的文本不会出现。</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅限战斗中使用！</t>
+    </r>
   </si>
   <si>
     <t>\boost&gt;x[text]</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">除非 </t>
     </r>
     <r>
@@ -1148,19 +1144,22 @@
       </rPr>
       <t>Boost，否则括号内的文本不会出现。</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅限战斗中使用！</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">\boost=x[text]  </t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">除非 </t>
     </r>
     <r>
@@ -1184,19 +1183,22 @@
       </rPr>
       <t>Boost，否则括号内的文本不会出现。</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅限战斗中使用！</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">\boost&lt;x[text] </t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">除非 </t>
     </r>
     <r>
@@ -1220,19 +1222,22 @@
       </rPr>
       <t>Boost，否则括号内的文本不会出现。</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅限战斗中使用！</t>
+    </r>
   </si>
   <si>
     <t>\boost&lt;=x[text]</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">除非 </t>
     </r>
     <r>
@@ -1255,6 +1260,16 @@
         <scheme val="minor"/>
       </rPr>
       <t>Boost，否则括号内的文本不会出现。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅限战斗中使用！</t>
     </r>
   </si>
   <si>
@@ -1342,6 +1357,160 @@
   </si>
   <si>
     <t>800</t>
+  </si>
+  <si>
+    <t>Mirror Animation:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>镜像特效动画？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这用于Boost</t>
+    </r>
+  </si>
+  <si>
+    <t>Mute Animation:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否将效果动画设置为静音？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这用于Boost</t>
+    </r>
+  </si>
+  <si>
+    <t>Repeat Animation?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">重复播放Boost动画？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅在命令输入期间重复。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Repeat Cycle:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个动画之间要等待多少帧？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60帧=1秒。</t>
+    </r>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mirror Animation:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>镜像特效动画？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>覆盖Boost镜像设置</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mute Animation:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否将效果动画设置为静音？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>覆盖Boost静音设置</t>
+    </r>
   </si>
   <si>
     <t>Boost Modifiers</t>
@@ -1563,7 +1732,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1574,7 +1743,14 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1605,6 +1781,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1754,6 +1938,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
@@ -1762,13 +1961,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1776,7 +1968,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1792,12 +1983,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2155,58 +2358,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2218,117 +2415,141 @@
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2736,12 +2957,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2751,7 +2972,7 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2761,7 +2982,7 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2771,15 +2992,15 @@
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="37.5" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
@@ -2790,7 +3011,7 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
@@ -2801,7 +3022,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
@@ -2812,7 +3033,7 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
@@ -2823,7 +3044,7 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
@@ -2831,15 +3052,15 @@
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" ht="67.5" spans="1:3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
@@ -2850,7 +3071,7 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
@@ -2858,10 +3079,10 @@
       </c>
     </row>
     <row r="20" ht="27" spans="1:3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
@@ -2869,7 +3090,7 @@
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2877,7 +3098,7 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
@@ -2888,7 +3109,7 @@
       <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
@@ -2899,7 +3120,7 @@
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C25" t="s">
@@ -2910,7 +3131,7 @@
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C26" t="s">
@@ -2921,7 +3142,7 @@
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C27" t="s">
@@ -2932,7 +3153,7 @@
       <c r="A28" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C28" t="s">
@@ -2940,7 +3161,7 @@
       </c>
     </row>
     <row r="30" ht="18.75" spans="1:1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="20" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2956,15 +3177,15 @@
       </c>
     </row>
     <row r="33" ht="18.75" spans="1:1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" ht="49.5" spans="1:3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C34" t="s">
@@ -2972,10 +3193,10 @@
       </c>
     </row>
     <row r="35" ht="49.5" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C35" t="s">
@@ -2983,10 +3204,10 @@
       </c>
     </row>
     <row r="36" ht="49.5" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C36" t="s">
@@ -2994,10 +3215,10 @@
       </c>
     </row>
     <row r="37" ht="49.5" spans="1:3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C37" t="s">
@@ -3005,7 +3226,7 @@
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:1">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="20" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3013,7 +3234,7 @@
       <c r="A40" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C40" t="s">
@@ -3021,10 +3242,10 @@
       </c>
     </row>
     <row r="41" ht="27" spans="1:3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C41" t="s">
@@ -3044,8 +3265,8 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3055,12 +3276,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="20" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3068,7 +3289,7 @@
       <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3076,7 +3297,7 @@
       <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3084,7 +3305,7 @@
       <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3092,7 +3313,7 @@
       <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3100,7 +3321,7 @@
       <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3108,7 +3329,7 @@
       <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3116,7 +3337,7 @@
       <c r="A10" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3124,7 +3345,7 @@
       <c r="A11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3132,7 +3353,7 @@
       <c r="A12" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3140,7 +3361,7 @@
       <c r="A13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3148,7 +3369,7 @@
       <c r="A14" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3156,7 +3377,7 @@
       <c r="A15" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3170,10 +3391,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3183,15 +3404,19 @@
     <col min="3" max="3" width="51.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:1">
+    <row r="1" ht="18.75" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -3241,7 +3466,7 @@
       <c r="A7" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3270,16 +3495,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
         <v>104</v>
       </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" ht="27" spans="1:3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3297,254 +3524,330 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5" spans="1:3">
+      <c r="A15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C16" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>120</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B17" s="9" t="s">
         <v>121</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" ht="18.75" spans="1:1">
-      <c r="A22" s="2" t="s">
+      <c r="B20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B21" t="s">
         <v>128</v>
       </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="B24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>133</v>
+      <c r="A25" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" t="s">
-        <v>135</v>
+      <c r="A26" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+    </row>
+    <row r="28" ht="18.75" spans="1:3">
+      <c r="A28" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>144</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
+      <c r="C31" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:3">
-      <c r="A34" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>153</v>
       </c>
       <c r="B35" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="9" t="s">
+      <c r="G35" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="9" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="38" ht="14.25" spans="3:3">
-      <c r="C38" s="10" t="s">
+      <c r="B36" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
         <v>159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:3">
+      <c r="A40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="3:3">
+      <c r="C44" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" ht="37.5" spans="1:3">
-      <c r="A43" t="s">
-        <v>164</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>166</v>
+    <row r="49" ht="37.5" spans="1:3">
+      <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
